--- a/curation/draft/dht/DHT_BC_SDTM.xlsx
+++ b/curation/draft/dht/DHT_BC_SDTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\dht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5269D4CB-6973-43FF-8E12-6B9B63B431F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C18A15-73BC-4B6C-BC3F-ABC0FD1EC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5BC52F4C-7A2B-46DF-8F28-26E2E87FC85C}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5BC52F4C-7A2B-46DF-8F28-26E2E87FC85C}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_DI" sheetId="6" r:id="rId1"/>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6922" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6921" uniqueCount="483">
   <si>
     <t>package_date</t>
   </si>
@@ -10589,8 +10589,8 @@
   <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11871,9 +11871,6 @@
       <c r="N17" s="9"/>
       <c r="O17" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>448</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>80</v>
